--- a/data_performance_all.xlsx
+++ b/data_performance_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyThon\ALPHA FACTORY\BACKTEST TRADING STRAT\Son_MARKET_REGIME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E26F53-358D-4786-A172-5051A01B88B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E50FC-10F7-4A8C-9C4A-BD94D539A89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9368,7 +9368,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,10 +9395,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>-7.1530995806587644E-2</v>
+        <v>-8.8253256927823723E-2</v>
       </c>
       <c r="C2" s="4">
-        <v>-0.18057553956834549</v>
+        <v>-0.18057553956834599</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(VLOOKUP(A2,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9410,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7.4066098083553841E-2</v>
+        <v>7.3742665340830904E-2</v>
       </c>
       <c r="C3" s="4">
         <v>-3.804046213611826E-2</v>
@@ -9425,7 +9425,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0.1121622897434915</v>
+        <v>0.11167249808522289</v>
       </c>
       <c r="C4" s="4">
         <v>-9.8870056497175229E-2</v>
@@ -9440,10 +9440,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>-4.20641493522508E-2</v>
+        <v>-4.1215412739130028E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>-0.19209456963428109</v>
+        <v>-0.1920945696342812</v>
       </c>
       <c r="D5" t="str">
         <f>IFERROR(VLOOKUP(A5,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9455,7 +9455,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>7.0388980794536884E-2</v>
+        <v>7.0081605332552005E-2</v>
       </c>
       <c r="C6" s="4">
         <v>-0.12767724300197211</v>
@@ -9470,10 +9470,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1164593155432288</v>
+        <v>0.1108639952601763</v>
       </c>
       <c r="C7" s="4">
-        <v>-9.7595473833097399E-2</v>
+        <v>-9.7595473833097662E-2</v>
       </c>
       <c r="D7" t="str">
         <f>IFERROR(VLOOKUP(A7,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9485,10 +9485,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>0.17068343066650199</v>
+        <v>0.1634737064050123</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.11193737769080191</v>
+        <v>-0.1119373776908025</v>
       </c>
       <c r="D8" t="str">
         <f>IFERROR(VLOOKUP(A8,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9500,7 +9500,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>7.0413280427556624E-2</v>
+        <v>7.0105798853637158E-2</v>
       </c>
       <c r="C9" s="4">
         <v>-0.12764641687886469</v>
@@ -9515,7 +9515,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>6.896837592502382E-2</v>
+        <v>6.8667203977752972E-2</v>
       </c>
       <c r="C10" s="4">
         <v>-3.8842204629559833E-2</v>
@@ -9530,10 +9530,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>0.15328051136780729</v>
+        <v>0.14872818363004961</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.1151477832512313</v>
+        <v>-0.1151477832512314</v>
       </c>
       <c r="D11" t="str">
         <f>IFERROR(VLOOKUP(A11,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9545,10 +9545,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>0.18526604770156219</v>
+        <v>0.19012062154814591</v>
       </c>
       <c r="C12" s="4">
-        <v>-8.4182543198936394E-2</v>
+        <v>-8.4182543198936644E-2</v>
       </c>
       <c r="D12" t="str">
         <f>IFERROR(VLOOKUP(A12,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9560,10 +9560,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>-8.072779071437837E-2</v>
+        <v>-9.100072654775121E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>-0.17903556771545859</v>
+        <v>-0.1790355677154582</v>
       </c>
       <c r="D13" t="str">
         <f>IFERROR(VLOOKUP(A13,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9575,10 +9575,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>0.1542154823971694</v>
+        <v>0.15427100644191619</v>
       </c>
       <c r="C14" s="4">
-        <v>-0.1215993262506805</v>
+        <v>-0.12159932625068109</v>
       </c>
       <c r="D14" t="str">
         <f>IFERROR(VLOOKUP(A14,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9590,10 +9590,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="4">
-        <v>2.322385819444427E-3</v>
+        <v>-4.9499203503845898E-4</v>
       </c>
       <c r="C15" s="4">
-        <v>-0.1252918287937759</v>
+        <v>-0.12529182879377551</v>
       </c>
       <c r="D15" t="str">
         <f>IFERROR(VLOOKUP(A15,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9605,10 +9605,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>-8.4698725775862571E-2</v>
+        <v>-8.3805343466685417E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>-0.1706401766004417</v>
+        <v>-0.17064017660044101</v>
       </c>
       <c r="D16" t="str">
         <f>IFERROR(VLOOKUP(A16,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9620,10 +9620,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32618944672837807</v>
+        <v>0.32696003279644559</v>
       </c>
       <c r="C17" s="4">
-        <v>-0.1493354938644692</v>
+        <v>-0.14933549386446909</v>
       </c>
       <c r="D17" t="str">
         <f>IFERROR(VLOOKUP(A17,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9635,7 +9635,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>-3.8926758047683849E-2</v>
+        <v>-4.2316615896464883E-2</v>
       </c>
       <c r="C18" s="4">
         <v>-0.19027287915351729</v>
@@ -9650,7 +9650,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>6.2573967623263047E-2</v>
+        <v>6.230071885634924E-2</v>
       </c>
       <c r="C19" s="4">
         <v>-0.12061403508771899</v>
@@ -9665,10 +9665,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>0.1280713029826539</v>
+        <v>0.1287975965214391</v>
       </c>
       <c r="C20" s="4">
-        <v>-0.1017119838872102</v>
+        <v>-0.10171198388721001</v>
       </c>
       <c r="D20" t="str">
         <f>IFERROR(VLOOKUP(A20,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9680,7 +9680,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>6.2754057177597342E-2</v>
+        <v>6.2480021993415708E-2</v>
       </c>
       <c r="C21" s="4">
         <v>-0.1044978259319978</v>
@@ -9695,10 +9695,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="4">
-        <v>-4.2738722401463147E-2</v>
+        <v>-5.689939575355845E-2</v>
       </c>
       <c r="C22" s="4">
-        <v>-0.16201489611916839</v>
+        <v>-0.16201284748139511</v>
       </c>
       <c r="D22" t="str">
         <f>IFERROR(VLOOKUP(A22,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9710,7 +9710,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.16291457881619081</v>
+        <v>0.17069683792979701</v>
       </c>
       <c r="C23" s="4">
         <v>-6.1389783709157798E-2</v>
@@ -9725,10 +9725,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>0.19633646869200561</v>
+        <v>0.19401185529160381</v>
       </c>
       <c r="C24" s="4">
-        <v>-8.4490740740740616E-2</v>
+        <v>-8.4490740740740491E-2</v>
       </c>
       <c r="D24" t="str">
         <f>IFERROR(VLOOKUP(A24,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9740,10 +9740,10 @@
         <v>65</v>
       </c>
       <c r="B25" s="4">
-        <v>0.17018174115397569</v>
+        <v>0.1664563762176339</v>
       </c>
       <c r="C25" s="4">
-        <v>-9.4313453536754827E-2</v>
+        <v>-9.4313453536754924E-2</v>
       </c>
       <c r="D25" t="str">
         <f>IFERROR(VLOOKUP(A25,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9755,10 +9755,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>0.14932899871324251</v>
+        <v>0.14999086126204081</v>
       </c>
       <c r="C26" s="4">
-        <v>-0.1296652155380236</v>
+        <v>-0.12966521553802379</v>
       </c>
       <c r="D26" t="str">
         <f>IFERROR(VLOOKUP(A26,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9770,10 +9770,10 @@
         <v>76</v>
       </c>
       <c r="B27" s="4">
-        <v>4.7030919717570382E-2</v>
+        <v>4.3868853270131493E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>-0.1236268683594454</v>
+        <v>-0.1236268683594452</v>
       </c>
       <c r="D27" t="str">
         <f>IFERROR(VLOOKUP(A27,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9785,10 +9785,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="4">
-        <v>0.1389028561056363</v>
+        <v>0.13455293872327409</v>
       </c>
       <c r="C28" s="4">
-        <v>-0.1078413696625684</v>
+        <v>-0.1078413696625677</v>
       </c>
       <c r="D28" t="str">
         <f>IFERROR(VLOOKUP(A28,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9800,10 +9800,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>0.209709474022584</v>
+        <v>0.21099899605759501</v>
       </c>
       <c r="C29" s="4">
-        <v>-9.9699866476030671E-2</v>
+        <v>-9.9699866476030727E-2</v>
       </c>
       <c r="D29" t="str">
         <f>IFERROR(VLOOKUP(A29,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9815,7 +9815,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.17457073741214521</v>
+        <v>0.1738084197815245</v>
       </c>
       <c r="C30" s="4">
         <v>-0.16254055579066159</v>
@@ -9830,7 +9830,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="4">
-        <v>8.5526774574108747E-2</v>
+        <v>8.5153295209156307E-2</v>
       </c>
       <c r="C31" s="4">
         <v>-0.12700559414766091</v>
@@ -9845,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="4">
-        <v>0.1122855131982699</v>
+        <v>0.1117951834463124</v>
       </c>
       <c r="C32" s="4">
         <v>-0.12126888217522661</v>
@@ -9860,7 +9860,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="4">
-        <v>6.7116099735199136E-2</v>
+        <v>6.6823016330241944E-2</v>
       </c>
       <c r="C33" s="4">
         <v>-0.1043847048361722</v>
@@ -9875,7 +9875,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="4">
-        <v>9.4798246833276159E-2</v>
+        <v>9.4384280689899402E-2</v>
       </c>
       <c r="C34" s="4">
         <v>-0.1007015362756417</v>
@@ -9890,10 +9890,10 @@
         <v>79</v>
       </c>
       <c r="B35" s="4">
-        <v>-8.8798708688729328E-2</v>
+        <v>-8.7251366395321883E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>-0.18403115871470321</v>
+        <v>-0.18403115871470249</v>
       </c>
       <c r="D35" t="str">
         <f>IFERROR(VLOOKUP(A35,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9905,7 +9905,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="4">
-        <v>0.1143438821890637</v>
+        <v>0.1086822339126749</v>
       </c>
       <c r="C36" s="4">
         <v>-0.12903225806451599</v>
@@ -9920,10 +9920,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="4">
-        <v>-4.20641493522508E-2</v>
+        <v>-4.1215412739130028E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>-0.19209456963428109</v>
+        <v>-0.1920945696342812</v>
       </c>
       <c r="D37" t="str">
         <f>IFERROR(VLOOKUP(A37,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9935,10 +9935,10 @@
         <v>26</v>
       </c>
       <c r="B38" s="4">
-        <v>-7.7081824423144069E-2</v>
+        <v>-9.8504131682190521E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>-0.16747070985527071</v>
+        <v>-0.1674707098552714</v>
       </c>
       <c r="D38" t="str">
         <f>IFERROR(VLOOKUP(A38,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9950,7 +9950,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="4">
-        <v>0.20175920658638541</v>
+        <v>0.19259485993693179</v>
       </c>
       <c r="C39" s="4">
         <v>-0.12689699709396221</v>
@@ -9965,10 +9965,10 @@
         <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>-7.1421917861149195E-2</v>
+        <v>-6.8577797447761102E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>-0.15731370745170181</v>
+        <v>-0.15731370745170131</v>
       </c>
       <c r="D40" t="str">
         <f>IFERROR(VLOOKUP(A40,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9980,10 +9980,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>-1.67993744053626E-2</v>
+        <v>-4.5185584033768628E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-0.16538406613458609</v>
+        <v>-0.16538406613458559</v>
       </c>
       <c r="D41" t="str">
         <f>IFERROR(VLOOKUP(A41,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -9995,7 +9995,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <v>0.18372692734201909</v>
+        <v>0.20137506172305311</v>
       </c>
       <c r="C42" s="4">
         <v>-9.3314093314093197E-2</v>
@@ -10010,10 +10010,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="4">
-        <v>0.1174215503112339</v>
+        <v>0.11065256954619231</v>
       </c>
       <c r="C43" s="4">
-        <v>-0.12298827736936239</v>
+        <v>-0.1229882773693623</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(VLOOKUP(A43,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10025,7 +10025,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4">
-        <v>0.15481098506132679</v>
+        <v>0.15413495455887569</v>
       </c>
       <c r="C44" s="4">
         <v>-0.18340121353170991</v>
@@ -10040,10 +10040,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="4">
-        <v>8.1321548341420316E-2</v>
+        <v>7.5886857798389953E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.1347453160189756</v>
+        <v>-0.1347453160189753</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(VLOOKUP(A45,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10055,7 +10055,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="4">
-        <v>0.1146231778230333</v>
+        <v>0.11119523884192289</v>
       </c>
       <c r="C46" s="4">
         <v>-0.1124412141941003</v>
@@ -10070,10 +10070,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>0.2307844091818578</v>
+        <v>0.22136778315519279</v>
       </c>
       <c r="C47" s="4">
-        <v>-0.1090106019599611</v>
+        <v>-0.1090106019599604</v>
       </c>
       <c r="D47" t="str">
         <f>IFERROR(VLOOKUP(A47,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10085,7 +10085,7 @@
         <v>80</v>
       </c>
       <c r="B48" s="4">
-        <v>-0.14746549823158739</v>
+        <v>-0.14682154409083811</v>
       </c>
       <c r="C48" s="4">
         <v>-0.1724137931034487</v>
@@ -10100,10 +10100,10 @@
         <v>34</v>
       </c>
       <c r="B49" s="4">
-        <v>0.20978092354267119</v>
+        <v>0.2053016439810855</v>
       </c>
       <c r="C49" s="4">
-        <v>-9.8720292504570581E-2</v>
+        <v>-9.8720292504570262E-2</v>
       </c>
       <c r="D49" t="str">
         <f>IFERROR(VLOOKUP(A49,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10115,7 +10115,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>6.2573967623263047E-2</v>
+        <v>6.230071885634924E-2</v>
       </c>
       <c r="C50" s="4">
         <v>-0.12061403508771899</v>
@@ -10130,7 +10130,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4">
-        <v>0.12844004430909919</v>
+        <v>0.12894859415571311</v>
       </c>
       <c r="C51" s="4">
         <v>-0.10134003350083751</v>
@@ -10145,7 +10145,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="4">
-        <v>3.7179188102452451E-2</v>
+        <v>3.7016833569253969E-2</v>
       </c>
       <c r="C52" s="4">
         <v>-0.13658851005767561</v>
@@ -10160,7 +10160,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>0.187020349903226</v>
+        <v>0.1862036671525569</v>
       </c>
       <c r="C53" s="4">
         <v>-0.17664698894126679</v>
@@ -10175,10 +10175,10 @@
         <v>73</v>
       </c>
       <c r="B54" s="4">
-        <v>0.26728723169230961</v>
+        <v>0.26676650949249092</v>
       </c>
       <c r="C54" s="4">
-        <v>-7.6441977588037016E-2</v>
+        <v>-7.6441977588036059E-2</v>
       </c>
       <c r="D54" t="str">
         <f>IFERROR(VLOOKUP(A54,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10190,7 +10190,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1842619554455911</v>
+        <v>0.1834573180855667</v>
       </c>
       <c r="C55" s="4">
         <v>-0.17333686296892351</v>
@@ -10205,7 +10205,7 @@
         <v>81</v>
       </c>
       <c r="B56" s="4">
-        <v>0.1458802048712218</v>
+        <v>0.145243173408902</v>
       </c>
       <c r="C56" s="4">
         <v>-0.104404065291038</v>
@@ -10220,10 +10220,10 @@
         <v>39</v>
       </c>
       <c r="B57" s="4">
-        <v>0.1001678010842614</v>
+        <v>9.9520161956782816E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>-0.1457111919696413</v>
+        <v>-0.145711191969641</v>
       </c>
       <c r="D57" t="str">
         <f>IFERROR(VLOOKUP(A57,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10235,10 +10235,10 @@
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>8.7028456160851947E-2</v>
+        <v>9.4068920575336265E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>-0.1112807624400963</v>
+        <v>-0.11128076244009651</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(VLOOKUP(A58,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10265,7 +10265,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>0.20315049534577009</v>
+        <v>0.20226337527875801</v>
       </c>
       <c r="C60" s="4">
         <v>-0.17154670491941601</v>
@@ -10280,10 +10280,10 @@
         <v>43</v>
       </c>
       <c r="B61" s="4">
-        <v>8.9848777179408784E-2</v>
+        <v>8.9191453296704887E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>-0.1464756950425464</v>
+        <v>-0.14647569504254729</v>
       </c>
       <c r="D61" t="str">
         <f>IFERROR(VLOOKUP(A61,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10295,10 +10295,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="4">
-        <v>0.18005621459453439</v>
+        <v>0.18490047341893079</v>
       </c>
       <c r="C62" s="4">
-        <v>-5.8673803550686909E-2</v>
+        <v>-5.8673803550686597E-2</v>
       </c>
       <c r="D62" t="str">
         <f>IFERROR(VLOOKUP(A62,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10310,10 +10310,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="4">
-        <v>0.21712317909528681</v>
+        <v>0.22600017415970439</v>
       </c>
       <c r="C63" s="4">
-        <v>-8.9128954803471425E-2</v>
+        <v>-8.9128954803471397E-2</v>
       </c>
       <c r="D63" t="str">
         <f>IFERROR(VLOOKUP(A63,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10325,7 +10325,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="4">
-        <v>5.0281044229021611E-2</v>
+        <v>5.0061476350292261E-2</v>
       </c>
       <c r="C64" s="4">
         <v>-0.1130434782608698</v>
@@ -10340,10 +10340,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="4">
-        <v>0.1901343775486832</v>
+        <v>0.18063924066635739</v>
       </c>
       <c r="C65" s="4">
-        <v>-7.4074074074073903E-2</v>
+        <v>-7.4074074074073862E-2</v>
       </c>
       <c r="D65" t="str">
         <f>IFERROR(VLOOKUP(A65,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10355,10 +10355,10 @@
         <v>47</v>
       </c>
       <c r="B66" s="4">
-        <v>0.29718212479593659</v>
+        <v>0.29807938039209342</v>
       </c>
       <c r="C66" s="4">
-        <v>-8.3190279815420431E-2</v>
+        <v>-8.3190279815420792E-2</v>
       </c>
       <c r="D66" t="str">
         <f>IFERROR(VLOOKUP(A66,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10370,7 +10370,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="4">
-        <v>0.21950523787612361</v>
+        <v>0.21854669971945931</v>
       </c>
       <c r="C67" s="4">
         <v>-7.315347608716187E-2</v>
@@ -10385,10 +10385,10 @@
         <v>49</v>
       </c>
       <c r="B68" s="4">
-        <v>0.20664464373462171</v>
+        <v>0.20245828642751021</v>
       </c>
       <c r="C68" s="4">
-        <v>-0.10151388778667129</v>
+        <v>-0.1015138877866712</v>
       </c>
       <c r="D68" t="str">
         <f>IFERROR(VLOOKUP(A68,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10400,7 +10400,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="4">
-        <v>0.23398370377660399</v>
+        <v>0.23296194087801619</v>
       </c>
       <c r="C69" s="4">
         <v>-8.2990356669653792E-2</v>
@@ -10415,10 +10415,10 @@
         <v>51</v>
       </c>
       <c r="B70" s="4">
-        <v>0.22498555864495171</v>
+        <v>0.22336591659663441</v>
       </c>
       <c r="C70" s="4">
-        <v>-0.10036131287239709</v>
+        <v>-0.1003613128723975</v>
       </c>
       <c r="D70" t="str">
         <f>IFERROR(VLOOKUP(A70,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10430,10 +10430,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="4">
-        <v>0.1842684007059309</v>
+        <v>0.18855225211416329</v>
       </c>
       <c r="C71" s="4">
-        <v>-7.4767677720646672E-2</v>
+        <v>-7.4767677720647158E-2</v>
       </c>
       <c r="D71" t="str">
         <f>IFERROR(VLOOKUP(A71,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10445,10 +10445,10 @@
         <v>62</v>
       </c>
       <c r="B72" s="4">
-        <v>0.21763590095925861</v>
+        <v>0.2145221836962351</v>
       </c>
       <c r="C72" s="4">
-        <v>-9.9857273034681074E-2</v>
+        <v>-9.9857273034680713E-2</v>
       </c>
       <c r="D72" t="str">
         <f>IFERROR(VLOOKUP(A72,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10460,10 +10460,10 @@
         <v>52</v>
       </c>
       <c r="B73" s="4">
-        <v>0.23042247286771031</v>
+        <v>0.22100742734896731</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.1090106019599614</v>
+        <v>-0.1090106019599604</v>
       </c>
       <c r="D73" t="str">
         <f>IFERROR(VLOOKUP(A73,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10475,10 +10475,10 @@
         <v>53</v>
       </c>
       <c r="B74" s="4">
-        <v>0.14501873618901551</v>
+        <v>0.14262641220127381</v>
       </c>
       <c r="C74" s="4">
-        <v>-8.4957886444129355E-2</v>
+        <v>-8.4957886444129008E-2</v>
       </c>
       <c r="D74" t="str">
         <f>IFERROR(VLOOKUP(A74,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10490,10 +10490,10 @@
         <v>54</v>
       </c>
       <c r="B75" s="4">
-        <v>0.12063269101548001</v>
+        <v>0.11678564692744201</v>
       </c>
       <c r="C75" s="4">
-        <v>-0.1187890108642469</v>
+        <v>-0.1187890108642472</v>
       </c>
       <c r="D75" t="str">
         <f>IFERROR(VLOOKUP(A75,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10505,7 +10505,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="4">
-        <v>0.1324111328142388</v>
+        <v>0.13183291826046481</v>
       </c>
       <c r="C76" s="4">
         <v>-8.6538572437098574E-2</v>
@@ -10520,7 +10520,7 @@
         <v>55</v>
       </c>
       <c r="B77" s="4">
-        <v>0.16414382158862029</v>
+        <v>0.16342703634150851</v>
       </c>
       <c r="C77" s="4">
         <v>-5.8421029838465151E-2</v>
@@ -10535,10 +10535,10 @@
         <v>56</v>
       </c>
       <c r="B78" s="4">
-        <v>0.17812619658940321</v>
+        <v>0.18410174995255019</v>
       </c>
       <c r="C78" s="4">
-        <v>-8.6437181018568982E-2</v>
+        <v>-8.6437181018568551E-2</v>
       </c>
       <c r="D78" t="str">
         <f>IFERROR(VLOOKUP(A78,[1]Code!$A:$C,3,0),"Open ended Fund")</f>
@@ -10550,10 +10550,10 @@
         <v>57</v>
       </c>
       <c r="B79" s="4">
-        <v>0.119894015148787</v>
+        <v>0.1211137380982085</v>
       </c>
       <c r="C79" s="4">
-        <v>-8.9390627664356778E-2</v>
+        <v>-8.9390627664356875E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10561,7 +10561,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>0.1986</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="C80" s="4">
         <v>-0.12</v>

--- a/data_performance_all.xlsx
+++ b/data_performance_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyThon\ALPHA FACTORY\BACKTEST TRADING STRAT\Son_MARKET_REGIME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E50FC-10F7-4A8C-9C4A-BD94D539A89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07155B06-021C-4D06-8245-17B328C545DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9367,8 +9367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>-8.8253256927823723E-2</v>
+        <v>-0.11145510835913321</v>
       </c>
       <c r="C2" s="4">
         <v>-0.18057553956834599</v>
@@ -9410,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7.3742665340830904E-2</v>
+        <v>0.1080213849698837</v>
       </c>
       <c r="C3" s="4">
         <v>-3.804046213611826E-2</v>
@@ -9425,7 +9425,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0.11167249808522289</v>
+        <v>0.1064854759850451</v>
       </c>
       <c r="C4" s="4">
         <v>-9.8870056497175229E-2</v>
@@ -9440,7 +9440,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>-4.1215412739130028E-2</v>
+        <v>-5.4995970991135963E-2</v>
       </c>
       <c r="C5" s="4">
         <v>-0.1920945696342812</v>
@@ -9455,7 +9455,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>7.0081605332552005E-2</v>
+        <v>6.5626681011295762E-2</v>
       </c>
       <c r="C6" s="4">
         <v>-0.12767724300197211</v>
@@ -9470,7 +9470,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.1108639952601763</v>
+        <v>9.8613251155623027E-2</v>
       </c>
       <c r="C7" s="4">
         <v>-9.7595473833097662E-2</v>
@@ -9485,7 +9485,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>0.1634737064050123</v>
+        <v>0.16674197921373629</v>
       </c>
       <c r="C8" s="4">
         <v>-0.1119373776908025</v>
@@ -9500,7 +9500,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>7.0105798853637158E-2</v>
+        <v>6.572144126676438E-2</v>
       </c>
       <c r="C9" s="4">
         <v>-0.12764641687886469</v>
@@ -9515,7 +9515,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>6.8667203977752972E-2</v>
+        <v>0.1024925198965982</v>
       </c>
       <c r="C10" s="4">
         <v>-3.8842204629559833E-2</v>
@@ -9530,7 +9530,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>0.14872818363004961</v>
+        <v>0.15737473535638569</v>
       </c>
       <c r="C11" s="4">
         <v>-0.1151477832512314</v>
@@ -9545,7 +9545,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>0.19012062154814591</v>
+        <v>0.20844055584148211</v>
       </c>
       <c r="C12" s="4">
         <v>-8.4182543198936644E-2</v>
@@ -9560,7 +9560,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>-9.100072654775121E-2</v>
+        <v>-0.1035707779194754</v>
       </c>
       <c r="C13" s="4">
         <v>-0.1790355677154582</v>
@@ -9575,7 +9575,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>0.15427100644191619</v>
+        <v>0.1512388162422578</v>
       </c>
       <c r="C14" s="4">
         <v>-0.12159932625068109</v>
@@ -9590,7 +9590,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="4">
-        <v>-4.9499203503845898E-4</v>
+        <v>-1.020408163265518E-2</v>
       </c>
       <c r="C15" s="4">
         <v>-0.12529182879377551</v>
@@ -9605,7 +9605,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>-8.3805343466685417E-2</v>
+        <v>-9.9429115128448764E-2</v>
       </c>
       <c r="C16" s="4">
         <v>-0.17064017660044101</v>
@@ -9620,7 +9620,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.32696003279644559</v>
+        <v>0.33494872563012312</v>
       </c>
       <c r="C17" s="4">
         <v>-0.14933549386446909</v>
@@ -9635,7 +9635,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>-4.2316615896464883E-2</v>
+        <v>-4.953497775980531E-2</v>
       </c>
       <c r="C18" s="4">
         <v>-0.19027287915351729</v>
@@ -9650,7 +9650,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="4">
-        <v>6.230071885634924E-2</v>
+        <v>6.2525375558264429E-2</v>
       </c>
       <c r="C19" s="4">
         <v>-0.12061403508771899</v>
@@ -9665,7 +9665,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>0.1287975965214391</v>
+        <v>0.13551401869158911</v>
       </c>
       <c r="C20" s="4">
         <v>-0.10171198388721001</v>
@@ -9680,7 +9680,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>6.2480021993415708E-2</v>
+        <v>5.3673627223510767E-2</v>
       </c>
       <c r="C21" s="4">
         <v>-0.1044978259319978</v>
@@ -9695,7 +9695,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4">
-        <v>-5.689939575355845E-2</v>
+        <v>-7.7795104835467588E-2</v>
       </c>
       <c r="C22" s="4">
         <v>-0.16201284748139511</v>
@@ -9710,7 +9710,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.17069683792979701</v>
+        <v>0.15661252900232039</v>
       </c>
       <c r="C23" s="4">
         <v>-6.1389783709157798E-2</v>
@@ -9725,7 +9725,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="4">
-        <v>0.19401185529160381</v>
+        <v>0.1960000000000004</v>
       </c>
       <c r="C24" s="4">
         <v>-8.4490740740740491E-2</v>
@@ -9740,7 +9740,7 @@
         <v>65</v>
       </c>
       <c r="B25" s="4">
-        <v>0.1664563762176339</v>
+        <v>0.1978319783197833</v>
       </c>
       <c r="C25" s="4">
         <v>-9.4313453536754924E-2</v>
@@ -9755,7 +9755,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>0.14999086126204081</v>
+        <v>0.15695346795434631</v>
       </c>
       <c r="C26" s="4">
         <v>-0.12966521553802379</v>
@@ -9770,7 +9770,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="4">
-        <v>4.3868853270131493E-2</v>
+        <v>2.507712210170188E-2</v>
       </c>
       <c r="C27" s="4">
         <v>-0.1236268683594452</v>
@@ -9785,7 +9785,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4">
-        <v>0.13455293872327409</v>
+        <v>0.15339902204943151</v>
       </c>
       <c r="C28" s="4">
         <v>-0.1078413696625677</v>
@@ -9800,7 +9800,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>0.21099899605759501</v>
+        <v>0.2442384769539061</v>
       </c>
       <c r="C29" s="4">
         <v>-9.9699866476030727E-2</v>
@@ -9815,7 +9815,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.1738084197815245</v>
+        <v>0.23721954948069121</v>
       </c>
       <c r="C30" s="4">
         <v>-0.16254055579066159</v>
@@ -9830,7 +9830,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="4">
-        <v>8.5153295209156307E-2</v>
+        <v>8.1820050709243919E-2</v>
       </c>
       <c r="C31" s="4">
         <v>-0.12700559414766091</v>
@@ -9845,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="4">
-        <v>0.1117951834463124</v>
+        <v>0.1209915539380626</v>
       </c>
       <c r="C32" s="4">
         <v>-0.12126888217522661</v>
@@ -9860,7 +9860,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="4">
-        <v>6.6823016330241944E-2</v>
+        <v>5.8163720101025218E-2</v>
       </c>
       <c r="C33" s="4">
         <v>-0.1043847048361722</v>
@@ -9875,7 +9875,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="4">
-        <v>9.4384280689899402E-2</v>
+        <v>8.8006986221619732E-2</v>
       </c>
       <c r="C34" s="4">
         <v>-0.1007015362756417</v>
@@ -9890,7 +9890,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="4">
-        <v>-8.7251366395321883E-2</v>
+        <v>-7.7976817702844148E-2</v>
       </c>
       <c r="C35" s="4">
         <v>-0.18403115871470249</v>
@@ -9905,7 +9905,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="4">
-        <v>0.1086822339126749</v>
+        <v>0.11336982017200881</v>
       </c>
       <c r="C36" s="4">
         <v>-0.12903225806451599</v>
@@ -9920,7 +9920,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="4">
-        <v>-4.1215412739130028E-2</v>
+        <v>-5.4995970991135963E-2</v>
       </c>
       <c r="C37" s="4">
         <v>-0.1920945696342812</v>
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="4">
-        <v>-9.8504131682190521E-2</v>
+        <v>-0.1017942145734156</v>
       </c>
       <c r="C38" s="4">
         <v>-0.1674707098552714</v>
@@ -9950,7 +9950,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="4">
-        <v>0.19259485993693179</v>
+        <v>0.1949567181031244</v>
       </c>
       <c r="C39" s="4">
         <v>-0.12689699709396221</v>
@@ -9965,7 +9965,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>-6.8577797447761102E-2</v>
+        <v>-8.941485864562837E-2</v>
       </c>
       <c r="C40" s="4">
         <v>-0.15731370745170131</v>
@@ -9980,7 +9980,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>-4.5185584033768628E-2</v>
+        <v>4.2255511588468853E-2</v>
       </c>
       <c r="C41" s="4">
         <v>-0.16538406613458559</v>
@@ -9995,7 +9995,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <v>0.20137506172305311</v>
+        <v>0.2035928143712564</v>
       </c>
       <c r="C42" s="4">
         <v>-9.3314093314093197E-2</v>
@@ -10010,7 +10010,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="4">
-        <v>0.11065256954619231</v>
+        <v>0.12836624775583449</v>
       </c>
       <c r="C43" s="4">
         <v>-0.1229882773693623</v>
@@ -10025,7 +10025,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4">
-        <v>0.15413495455887569</v>
+        <v>0.2345554195711155</v>
       </c>
       <c r="C44" s="4">
         <v>-0.18340121353170991</v>
@@ -10040,7 +10040,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="4">
-        <v>7.5886857798389953E-2</v>
+        <v>7.2084160807257769E-2</v>
       </c>
       <c r="C45" s="4">
         <v>-0.1347453160189753</v>
@@ -10055,7 +10055,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="4">
-        <v>0.11119523884192289</v>
+        <v>0.1041515517936311</v>
       </c>
       <c r="C46" s="4">
         <v>-0.1124412141941003</v>
@@ -10070,7 +10070,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>0.22136778315519279</v>
+        <v>0.23921683734878291</v>
       </c>
       <c r="C47" s="4">
         <v>-0.1090106019599604</v>
@@ -10085,7 +10085,7 @@
         <v>80</v>
       </c>
       <c r="B48" s="4">
-        <v>-0.14682154409083811</v>
+        <v>-0.11759504862953141</v>
       </c>
       <c r="C48" s="4">
         <v>-0.1724137931034487</v>
@@ -10100,7 +10100,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="4">
-        <v>0.2053016439810855</v>
+        <v>0.23151645979492949</v>
       </c>
       <c r="C49" s="4">
         <v>-9.8720292504570262E-2</v>
@@ -10115,7 +10115,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="4">
-        <v>6.230071885634924E-2</v>
+        <v>6.2525375558264429E-2</v>
       </c>
       <c r="C50" s="4">
         <v>-0.12061403508771899</v>
@@ -10130,7 +10130,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4">
-        <v>0.12894859415571311</v>
+        <v>0.13508260447036119</v>
       </c>
       <c r="C51" s="4">
         <v>-0.10134003350083751</v>
@@ -10145,7 +10145,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="4">
-        <v>3.7016833569253969E-2</v>
+        <v>4.4333149601808897E-2</v>
       </c>
       <c r="C52" s="4">
         <v>-0.13658851005767561</v>
@@ -10160,7 +10160,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="4">
-        <v>0.1862036671525569</v>
+        <v>0.25660226561956878</v>
       </c>
       <c r="C53" s="4">
         <v>-0.17664698894126679</v>
@@ -10175,7 +10175,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="4">
-        <v>0.26676650949249092</v>
+        <v>0.2896855398598932</v>
       </c>
       <c r="C54" s="4">
         <v>-7.6441977588036059E-2</v>
@@ -10190,7 +10190,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1834573180855667</v>
+        <v>0.2605398675796502</v>
       </c>
       <c r="C55" s="4">
         <v>-0.17333686296892351</v>
@@ -10205,7 +10205,7 @@
         <v>81</v>
       </c>
       <c r="B56" s="4">
-        <v>0.145243173408902</v>
+        <v>0.1613361762615482</v>
       </c>
       <c r="C56" s="4">
         <v>-0.104404065291038</v>
@@ -10220,7 +10220,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="4">
-        <v>9.9520161956782816E-2</v>
+        <v>0.11354817140878801</v>
       </c>
       <c r="C57" s="4">
         <v>-0.145711191969641</v>
@@ -10235,7 +10235,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="4">
-        <v>9.4068920575336265E-2</v>
+        <v>0.1122944452457038</v>
       </c>
       <c r="C58" s="4">
         <v>-0.11128076244009651</v>
@@ -10265,7 +10265,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>0.20226337527875801</v>
+        <v>0.28316197539187637</v>
       </c>
       <c r="C60" s="4">
         <v>-0.17154670491941601</v>
@@ -10280,7 +10280,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="4">
-        <v>8.9191453296704887E-2</v>
+        <v>0.10280569514237679</v>
       </c>
       <c r="C61" s="4">
         <v>-0.14647569504254729</v>
@@ -10295,7 +10295,7 @@
         <v>44</v>
       </c>
       <c r="B62" s="4">
-        <v>0.18490047341893079</v>
+        <v>0.2099832211711701</v>
       </c>
       <c r="C62" s="4">
         <v>-5.8673803550686597E-2</v>
@@ -10310,7 +10310,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="4">
-        <v>0.22600017415970439</v>
+        <v>0.26649041375039179</v>
       </c>
       <c r="C63" s="4">
         <v>-8.9128954803471397E-2</v>
@@ -10325,7 +10325,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="4">
-        <v>5.0061476350292261E-2</v>
+        <v>0.43636363636363562</v>
       </c>
       <c r="C64" s="4">
         <v>-0.1130434782608698</v>
@@ -10340,7 +10340,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="4">
-        <v>0.18063924066635739</v>
+        <v>0.19541875447387369</v>
       </c>
       <c r="C65" s="4">
         <v>-7.4074074074073862E-2</v>
@@ -10355,7 +10355,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="4">
-        <v>0.29807938039209342</v>
+        <v>0.33487677537260557</v>
       </c>
       <c r="C66" s="4">
         <v>-8.3190279815420792E-2</v>
@@ -10370,7 +10370,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="4">
-        <v>0.21854669971945931</v>
+        <v>0.2512421815631023</v>
       </c>
       <c r="C67" s="4">
         <v>-7.315347608716187E-2</v>
@@ -10385,7 +10385,7 @@
         <v>49</v>
       </c>
       <c r="B68" s="4">
-        <v>0.20245828642751021</v>
+        <v>0.2209185561630633</v>
       </c>
       <c r="C68" s="4">
         <v>-0.1015138877866712</v>
@@ -10400,7 +10400,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="4">
-        <v>0.23296194087801619</v>
+        <v>0.27036245229021172</v>
       </c>
       <c r="C69" s="4">
         <v>-8.2990356669653792E-2</v>
@@ -10415,7 +10415,7 @@
         <v>51</v>
       </c>
       <c r="B70" s="4">
-        <v>0.22336591659663441</v>
+        <v>0.24389314105734991</v>
       </c>
       <c r="C70" s="4">
         <v>-0.1003613128723975</v>
@@ -10430,7 +10430,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="4">
-        <v>0.18855225211416329</v>
+        <v>0.21189206832771279</v>
       </c>
       <c r="C71" s="4">
         <v>-7.4767677720647158E-2</v>
@@ -10445,7 +10445,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="4">
-        <v>0.2145221836962351</v>
+        <v>0.22918654464200361</v>
       </c>
       <c r="C72" s="4">
         <v>-9.9857273034680713E-2</v>
@@ -10460,7 +10460,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="4">
-        <v>0.22100742734896731</v>
+        <v>0.23914592902533191</v>
       </c>
       <c r="C73" s="4">
         <v>-0.1090106019599604</v>
@@ -10475,7 +10475,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="4">
-        <v>0.14262641220127381</v>
+        <v>0.14163017671182329</v>
       </c>
       <c r="C74" s="4">
         <v>-8.4957886444129008E-2</v>
@@ -10490,7 +10490,7 @@
         <v>54</v>
       </c>
       <c r="B75" s="4">
-        <v>0.11678564692744201</v>
+        <v>0.1236887844102068</v>
       </c>
       <c r="C75" s="4">
         <v>-0.1187890108642472</v>
@@ -10505,7 +10505,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="4">
-        <v>0.13183291826046481</v>
+        <v>0.1598281700848361</v>
       </c>
       <c r="C76" s="4">
         <v>-8.6538572437098574E-2</v>
@@ -10520,7 +10520,7 @@
         <v>55</v>
       </c>
       <c r="B77" s="4">
-        <v>0.16342703634150851</v>
+        <v>0.18489055269588769</v>
       </c>
       <c r="C77" s="4">
         <v>-5.8421029838465151E-2</v>
@@ -10535,7 +10535,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="4">
-        <v>0.18410174995255019</v>
+        <v>0.20438930024681559</v>
       </c>
       <c r="C78" s="4">
         <v>-8.6437181018568551E-2</v>
@@ -10550,7 +10550,7 @@
         <v>57</v>
       </c>
       <c r="B79" s="4">
-        <v>0.1211137380982085</v>
+        <v>0.1211136973086855</v>
       </c>
       <c r="C79" s="4">
         <v>-8.9390627664356875E-2</v>
